--- a/artfynd/A 9522-2023.xlsx
+++ b/artfynd/A 9522-2023.xlsx
@@ -1821,7 +1821,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111675586</v>
+        <v>111675585</v>
       </c>
       <c r="B10" t="n">
         <v>42708</v>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1885,10 +1885,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>690348.8581766916</v>
+        <v>690349.9096738817</v>
       </c>
       <c r="R10" t="n">
-        <v>6661440.95072202</v>
+        <v>6661440.004307052</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111675585</v>
+        <v>111675586</v>
       </c>
       <c r="B11" t="n">
         <v>42708</v>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>690349.9096738817</v>
+        <v>690348.8581766916</v>
       </c>
       <c r="R11" t="n">
-        <v>6661440.004307052</v>
+        <v>6661440.95072202</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>

--- a/artfynd/A 9522-2023.xlsx
+++ b/artfynd/A 9522-2023.xlsx
@@ -1681,7 +1681,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111675587</v>
+        <v>111675585</v>
       </c>
       <c r="B9" t="n">
         <v>42708</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1745,10 +1745,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>690344.8588249951</v>
+        <v>690349.9096738817</v>
       </c>
       <c r="R9" t="n">
-        <v>6661440.743740954</v>
+        <v>6661440.004307052</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111675585</v>
+        <v>111675587</v>
       </c>
       <c r="B10" t="n">
         <v>42708</v>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1885,10 +1885,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>690349.9096738817</v>
+        <v>690344.8588249951</v>
       </c>
       <c r="R10" t="n">
-        <v>6661440.004307052</v>
+        <v>6661440.743740954</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>

--- a/artfynd/A 9522-2023.xlsx
+++ b/artfynd/A 9522-2023.xlsx
@@ -1681,7 +1681,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111675585</v>
+        <v>111675587</v>
       </c>
       <c r="B9" t="n">
         <v>42708</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1745,10 +1745,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>690349.9096738817</v>
+        <v>690344.8588249951</v>
       </c>
       <c r="R9" t="n">
-        <v>6661440.004307052</v>
+        <v>6661440.743740954</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111675587</v>
+        <v>111675586</v>
       </c>
       <c r="B10" t="n">
         <v>42708</v>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1885,10 +1885,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>690344.8588249951</v>
+        <v>690348.8581766916</v>
       </c>
       <c r="R10" t="n">
-        <v>6661440.743740954</v>
+        <v>6661440.95072202</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111675586</v>
+        <v>111675585</v>
       </c>
       <c r="B11" t="n">
         <v>42708</v>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>690348.8581766916</v>
+        <v>690349.9096738817</v>
       </c>
       <c r="R11" t="n">
-        <v>6661440.95072202</v>
+        <v>6661440.004307052</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>

--- a/artfynd/A 9522-2023.xlsx
+++ b/artfynd/A 9522-2023.xlsx
@@ -1681,7 +1681,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111675587</v>
+        <v>111675585</v>
       </c>
       <c r="B9" t="n">
         <v>42708</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1745,10 +1745,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>690344.8588249951</v>
+        <v>690349.9096738817</v>
       </c>
       <c r="R9" t="n">
-        <v>6661440.743740954</v>
+        <v>6661440.004307052</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111675586</v>
+        <v>111675587</v>
       </c>
       <c r="B10" t="n">
         <v>42708</v>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1885,10 +1885,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>690348.8581766916</v>
+        <v>690344.8588249951</v>
       </c>
       <c r="R10" t="n">
-        <v>6661440.95072202</v>
+        <v>6661440.743740954</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111675585</v>
+        <v>111675586</v>
       </c>
       <c r="B11" t="n">
         <v>42708</v>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>690349.9096738817</v>
+        <v>690348.8581766916</v>
       </c>
       <c r="R11" t="n">
-        <v>6661440.004307052</v>
+        <v>6661440.95072202</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>

--- a/artfynd/A 9522-2023.xlsx
+++ b/artfynd/A 9522-2023.xlsx
@@ -1681,7 +1681,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111675585</v>
+        <v>111675587</v>
       </c>
       <c r="B9" t="n">
         <v>42708</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1745,10 +1745,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>690349.9096738817</v>
+        <v>690344.8588249951</v>
       </c>
       <c r="R9" t="n">
-        <v>6661440.004307052</v>
+        <v>6661440.743740954</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111675587</v>
+        <v>111675585</v>
       </c>
       <c r="B10" t="n">
         <v>42708</v>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1885,10 +1885,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>690344.8588249951</v>
+        <v>690349.9096738817</v>
       </c>
       <c r="R10" t="n">
-        <v>6661440.743740954</v>
+        <v>6661440.004307052</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>

--- a/artfynd/A 9522-2023.xlsx
+++ b/artfynd/A 9522-2023.xlsx
@@ -1681,7 +1681,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111675587</v>
+        <v>111675585</v>
       </c>
       <c r="B9" t="n">
         <v>42708</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1745,10 +1745,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>690344.8588249951</v>
+        <v>690349.9096738817</v>
       </c>
       <c r="R9" t="n">
-        <v>6661440.743740954</v>
+        <v>6661440.004307052</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111675585</v>
+        <v>111675586</v>
       </c>
       <c r="B10" t="n">
         <v>42708</v>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1885,10 +1885,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>690349.9096738817</v>
+        <v>690348.8581766916</v>
       </c>
       <c r="R10" t="n">
-        <v>6661440.004307052</v>
+        <v>6661440.95072202</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111675586</v>
+        <v>111675587</v>
       </c>
       <c r="B11" t="n">
         <v>42708</v>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>690348.8581766916</v>
+        <v>690344.8588249951</v>
       </c>
       <c r="R11" t="n">
-        <v>6661440.95072202</v>
+        <v>6661440.743740954</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>

--- a/artfynd/A 9522-2023.xlsx
+++ b/artfynd/A 9522-2023.xlsx
@@ -1681,7 +1681,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111675585</v>
+        <v>111675587</v>
       </c>
       <c r="B9" t="n">
         <v>42708</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1745,10 +1745,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>690349.9096738817</v>
+        <v>690345</v>
       </c>
       <c r="R9" t="n">
-        <v>6661440.004307052</v>
+        <v>6661441</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1778,19 +1778,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1821,7 +1811,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111675586</v>
+        <v>111675585</v>
       </c>
       <c r="B10" t="n">
         <v>42708</v>
@@ -1856,7 +1846,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1885,10 +1875,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>690348.8581766916</v>
+        <v>690350</v>
       </c>
       <c r="R10" t="n">
-        <v>6661440.95072202</v>
+        <v>6661440</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1918,19 +1908,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1961,7 +1941,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111675587</v>
+        <v>111675586</v>
       </c>
       <c r="B11" t="n">
         <v>42708</v>
@@ -1996,7 +1976,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2025,10 +2005,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>690344.8588249951</v>
+        <v>690349</v>
       </c>
       <c r="R11" t="n">
-        <v>6661440.743740954</v>
+        <v>6661441</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -2058,19 +2038,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
